--- a/CASOSDEPRUEBA/PROBANDO.xlsx
+++ b/CASOSDEPRUEBA/PROBANDO.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\chatApp\CASOSDEPRUEBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48854B-533E-4CEF-9539-DE4E7C3FACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9C4F9-C441-44F5-886A-0A1E35C3517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>EnviarMensaje</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>DETALLE 1</t>
+  </si>
+  <si>
+    <t>DETALLE 2</t>
+  </si>
+  <si>
+    <t>DETALLE 3</t>
+  </si>
+  <si>
+    <t>DETALLE 4</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Columna5</t>
+  </si>
+  <si>
+    <t>Columna6</t>
+  </si>
+  <si>
+    <t>Columna7</t>
+  </si>
+  <si>
+    <t>Se envian los mensajes desde 2 navegadores diferentes</t>
+  </si>
+  <si>
+    <t>FUNCIONA</t>
+  </si>
+  <si>
+    <t>Uno es un SuperUsuario</t>
+  </si>
+  <si>
+    <t>NOFUNCIONA</t>
+  </si>
+  <si>
+    <t>CreacionDeEntradaDelBlog</t>
+  </si>
+  <si>
+    <t>Los Campos son Nombre/Campo/Fecha</t>
+  </si>
+  <si>
+    <t>Se agrega el campo de imagen, borrando la bd y los caches con el migrations</t>
+  </si>
+  <si>
+    <t>Se vuelven a correr el makemigrations y migrate</t>
+  </si>
+  <si>
+    <t>Le agrego campo "None" como default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNCIONA al guardar quedando en bd pero no da imagen </t>
   </si>
 </sst>
 </file>
@@ -51,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,18 +131,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -81,6 +352,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8077CF50-606A-44D9-B793-449324BC1A4C}" name="Tabla1" displayName="Tabla1" ref="A2:G21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+  <autoFilter ref="A2:G21" xr:uid="{8077CF50-606A-44D9-B793-449324BC1A4C}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C8AF7CFD-6BCD-47EB-BA81-2322DD1CF32D}" name="Columna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4D277BBD-21C0-49CA-B477-092D6F90E384}" name="Columna2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A4F74302-F26A-4AB3-8521-D8FD7E4D997A}" name="Columna3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9E8911C6-FAFB-4C27-8DB6-E2BE52DF6BAB}" name="Columna4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8D38BDFE-1CD8-494F-B8EC-86AE50476060}" name="Columna5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{B310D1E1-F1B7-42BD-8607-EAEBDB85B949}" name="Columna6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B547EC80-58BC-4C97-A360-255C187EFB74}" name="Columna7" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,27 +633,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>44910</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/CASOSDEPRUEBA/PROBANDO.xlsx
+++ b/CASOSDEPRUEBA/PROBANDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\chatApp\CASOSDEPRUEBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9C4F9-C441-44F5-886A-0A1E35C3517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58316966-C952-4AD7-8A78-3DE9395FCC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>EnviarMensaje</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">FUNCIONA al guardar quedando en bd pero no da imagen </t>
+  </si>
+  <si>
+    <t>Cambio con codigo jinja para que el template me muestre la imagen</t>
+  </si>
+  <si>
+    <t>Los Campos son Nombre/Campo/Fecha/imagen</t>
+  </si>
+  <si>
+    <t>Cambio los px</t>
   </si>
 </sst>
 </file>
@@ -168,9 +177,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -337,6 +343,9 @@
           <color auto="1"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -355,16 +364,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8077CF50-606A-44D9-B793-449324BC1A4C}" name="Tabla1" displayName="Tabla1" ref="A2:G21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8077CF50-606A-44D9-B793-449324BC1A4C}" name="Tabla1" displayName="Tabla1" ref="A2:G21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G21" xr:uid="{8077CF50-606A-44D9-B793-449324BC1A4C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C8AF7CFD-6BCD-47EB-BA81-2322DD1CF32D}" name="Columna1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4D277BBD-21C0-49CA-B477-092D6F90E384}" name="Columna2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A4F74302-F26A-4AB3-8521-D8FD7E4D997A}" name="Columna3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9E8911C6-FAFB-4C27-8DB6-E2BE52DF6BAB}" name="Columna4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8D38BDFE-1CD8-494F-B8EC-86AE50476060}" name="Columna5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{B310D1E1-F1B7-42BD-8607-EAEBDB85B949}" name="Columna6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B547EC80-58BC-4C97-A360-255C187EFB74}" name="Columna7" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C8AF7CFD-6BCD-47EB-BA81-2322DD1CF32D}" name="Columna1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4D277BBD-21C0-49CA-B477-092D6F90E384}" name="Columna2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A4F74302-F26A-4AB3-8521-D8FD7E4D997A}" name="Columna3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9E8911C6-FAFB-4C27-8DB6-E2BE52DF6BAB}" name="Columna4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8D38BDFE-1CD8-494F-B8EC-86AE50476060}" name="Columna5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B310D1E1-F1B7-42BD-8607-EAEBDB85B949}" name="Columna6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B547EC80-58BC-4C97-A360-255C187EFB74}" name="Columna7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,13 +645,13 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
@@ -773,7 +782,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44911</v>
       </c>
@@ -801,14 +810,26 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44912</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
